--- a/biology/Botanique/Medicago_truncatula/Medicago_truncatula.xlsx
+++ b/biology/Botanique/Medicago_truncatula/Medicago_truncatula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Medicago truncatula, la luzerne tronquée, est une espèce de plantes dicotylédones  de la famille des Fabaceae, sous-famille des Faboideae, originaire du bassin méditerranéen. Ce sont des plantes herbacées annuelles, proches de la luzerne cultivée, pouvant atteindre 40 cm de haut. La luzerne tronquée est parfois cultivée comme plante fourragère et il en existe de nombreux cultivars.
@@ -514,9 +526,11 @@
           <t>Importance scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À ce jour, les trois domaines biologiques, qui ont été largement étudiés chez M. truncatula, sont la fixation symbiotique de l'azote, le développement des graines et la tolérance au stress abiotique, en raison de leurs impacts agronomiques importants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ce jour, les trois domaines biologiques, qui ont été largement étudiés chez M. truncatula, sont la fixation symbiotique de l'azote, le développement des graines et la tolérance au stress abiotique, en raison de leurs impacts agronomiques importants.
 </t>
         </is>
       </c>
@@ -547,12 +561,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Medicago tribuloides Desr.
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Medicago tribuloides Desr.
 Medicago tentaculata Willd.
-Medicago uncinata Willd.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (27 juillet 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+Medicago uncinata Willd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Medicago_truncatula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medicago_truncatula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 juillet 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Medicago truncatula subsp. littoralis (Rohde ex Loisel.) Ponert
 Medicago truncatula subsp. longiaculeata (Urb.) Ponert
